--- a/data/example.xlsx
+++ b/data/example.xlsx
@@ -37,6 +37,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">temperature </t>
     </r>
@@ -74,6 +75,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">experience (professional qualification)  T</t>
     </r>
@@ -105,6 +107,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">productivity (</t>
     </r>
@@ -136,6 +139,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">physical endurance  K</t>
     </r>
@@ -177,6 +181,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">organizational time breaks for one working hour T</t>
     </r>
@@ -260,6 +265,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">experience  (professional qualification) T</t>
     </r>
@@ -291,6 +297,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">productivity (</t>
     </r>
@@ -322,6 +329,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">physical endurance  K</t>
     </r>
@@ -353,6 +361,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">organizational time breaks T</t>
     </r>
@@ -391,6 +400,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -570,10 +580,10 @@
   <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
@@ -1084,10 +1094,13 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.65"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
